--- a/EQTime.xlsx
+++ b/EQTime.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7169C895-861D-46D9-9031-8019B72D7A0F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AEEE4F9D-FDE0-459B-805E-E5128E389111}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10963" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>ProjeDate</t>
   </si>
@@ -384,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -705,6 +705,61 @@
         <v>1.8368055555555554E-2</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43331</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.7905092592592594E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43336</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3.6331018518518519E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43338</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2.2349537037037032E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43343</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3.6724537037037035E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43346</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.3530092592592594E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/EQTime.xlsx
+++ b/EQTime.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AEEE4F9D-FDE0-459B-805E-E5128E389111}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C0FE2B-6E85-441C-B1C1-A6CA638BAC9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10963" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
   <si>
     <t>ProjeDate</t>
   </si>
@@ -384,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="W41" sqref="W41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -760,6 +760,28 @@
         <v>1.3530092592592594E-2</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43351</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43359</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2.5925925925925925E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/EQTime.xlsx
+++ b/EQTime.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C0FE2B-6E85-441C-B1C1-A6CA638BAC9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C2DB21-22BC-4A51-AE9A-4FE695FFC03A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10963" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>ProjeDate</t>
   </si>
@@ -384,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="W41" sqref="W41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -782,6 +782,39 @@
         <v>2.5925925925925925E-2</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43365</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3.4780092592592592E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43366</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1.1041666666666667E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43378</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2.7245370370370368E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/EQTime.xlsx
+++ b/EQTime.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C2DB21-22BC-4A51-AE9A-4FE695FFC03A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BEDD08-9973-468B-880A-A56EC667C7C9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10963" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$36</definedName>
+  </definedNames>
   <calcPr calcId="162913" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
   <si>
     <t>ProjeDate</t>
   </si>
@@ -32,9 +35,6 @@
   </si>
   <si>
     <t>Beastlord</t>
-  </si>
-  <si>
-    <t>Druid</t>
   </si>
   <si>
     <t>Bard</t>
@@ -384,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -424,7 +424,7 @@
         <v>43219</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>2.5345254629629627E-2</v>
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>3.2951388888888891E-2</v>
+        <v>1.7615740740740741E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -449,7 +449,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>1.7615740740740741E-2</v>
+        <v>2.6770833333333331E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,18 +460,18 @@
         <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>2.6770833333333331E-2</v>
+        <v>7.4652777777777781E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43219</v>
+        <v>43226</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>7.4652777777777781E-3</v>
+        <v>2.6504629629629628E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -482,337 +482,315 @@
         <v>8</v>
       </c>
       <c r="C8" s="2">
-        <v>2.6504629629629628E-2</v>
+        <v>2.2303240740740738E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43226</v>
+        <v>43260</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>2.2303240740740738E-2</v>
+        <v>1.6793981481481483E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43258</v>
+        <v>43266</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
-        <v>2.0137037037037037E-2</v>
+        <v>1.8483796296296297E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43260</v>
+        <v>43268</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2">
-        <v>1.6793981481481483E-2</v>
+        <v>1.556712962962963E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43266</v>
+        <v>43271</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2">
-        <v>1.8483796296296297E-2</v>
+        <v>5.0462962962962961E-3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43268</v>
+        <v>43275</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2">
-        <v>1.556712962962963E-2</v>
+        <v>1.6620370370370372E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43271</v>
+        <v>43282</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
-        <v>5.0462962962962961E-3</v>
+        <v>1.4722222222222222E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43275</v>
+        <v>43287</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="2">
-        <v>1.6620370370370372E-2</v>
+        <v>1.650462962962963E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43279</v>
+        <v>43290</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>2.2222222222222223E-2</v>
+        <v>7.6736111111111111E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43282</v>
+        <v>43294</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2">
-        <v>1.4722222222222222E-2</v>
+        <v>1.5173611111111112E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43287</v>
+        <v>43301</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>1.650462962962963E-2</v>
+        <v>3.472222222222222E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43290</v>
+        <v>43304</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>7.6736111111111111E-3</v>
+        <v>8.0671296296296307E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43294</v>
+        <v>43310</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="2">
-        <v>1.5173611111111112E-2</v>
+        <v>3.7685185185185183E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43301</v>
+        <v>43315</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C21" s="2">
-        <v>3.472222222222222E-3</v>
+        <v>2.5266203703703704E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43304</v>
+        <v>43317</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2">
-        <v>8.0671296296296307E-3</v>
+        <v>2.9618055555555554E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43310</v>
+        <v>43322</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="2">
-        <v>3.7685185185185183E-2</v>
+        <v>1.923611111111111E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43315</v>
+        <v>43323</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2">
-        <v>2.5266203703703704E-2</v>
+        <v>3.4560185185185187E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43317</v>
+        <v>43326</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2">
-        <v>2.9618055555555554E-2</v>
+        <v>1.8368055555555554E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43322</v>
+        <v>43331</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C26" s="2">
-        <v>1.923611111111111E-2</v>
+        <v>1.7905092592592594E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43323</v>
+        <v>43336</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="2">
-        <v>3.4560185185185187E-2</v>
+        <v>3.6331018518518519E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43326</v>
+        <v>43338</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="2">
-        <v>1.8368055555555554E-2</v>
+        <v>2.2349537037037032E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43331</v>
+        <v>43343</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2">
-        <v>1.7905092592592594E-2</v>
+        <v>3.6724537037037035E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43336</v>
+        <v>43346</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2">
-        <v>3.6331018518518519E-2</v>
+        <v>1.3530092592592594E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43338</v>
+        <v>43351</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2">
-        <v>2.2349537037037032E-2</v>
+        <v>2.0833333333333333E-3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43343</v>
+        <v>43359</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="2">
-        <v>3.6724537037037035E-2</v>
+        <v>2.5925925925925925E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43346</v>
+        <v>43365</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="2">
-        <v>1.3530092592592594E-2</v>
+        <v>3.4780092592592592E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43351</v>
+        <v>43366</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C34" s="2">
-        <v>2.0833333333333333E-3</v>
+        <v>1.1041666666666667E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43359</v>
+        <v>43378</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C35" s="2">
-        <v>2.5925925925925925E-2</v>
+        <v>2.7245370370370368E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43365</v>
+        <v>43381</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="2">
-        <v>3.4780092592592592E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>43366</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1.1041666666666667E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>43378</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="2">
-        <v>2.7245370370370368E-2</v>
+        <v>1.0069444444444444E-3</v>
       </c>
     </row>
   </sheetData>

--- a/EQTime.xlsx
+++ b/EQTime.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BEDD08-9973-468B-880A-A56EC667C7C9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6026B2-9C95-48E3-9633-48F404D17E3A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10963" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>ProjeDate</t>
   </si>
@@ -384,15 +384,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.875" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -793,6 +793,17 @@
         <v>1.0069444444444444E-3</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43386</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2.0601851851851854E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
